--- a/运维中心日报.xlsx
+++ b/运维中心日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21942" windowHeight="9925"/>
+    <workbookView windowWidth="21942" windowHeight="9925" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="资源视图" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="286">
   <si>
     <t>类别</t>
   </si>
@@ -83,14 +83,14 @@
     <t>当日处理工单</t>
   </si>
   <si>
-    <t>受理工单数：82条；
-应用运维组处理工单：51条</t>
+    <t>受理工单数：65条；
+应用运维组处理工单：44条</t>
   </si>
   <si>
     <t>0条</t>
   </si>
   <si>
-    <t>上升36.58%</t>
+    <t>下降28.12%</t>
   </si>
   <si>
     <t>平台/系统</t>
@@ -123,18 +123,27 @@
     <t>严重</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>基础设施组</t>
+  </si>
+  <si>
+    <t>云桌面平台</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>基础设施组</t>
-  </si>
-  <si>
-    <t>云桌面平台</t>
-  </si>
-  <si>
     <t>CAS平台</t>
   </si>
   <si>
@@ -150,390 +159,384 @@
     <t>容器云平台</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>网络安全平台</t>
+  </si>
+  <si>
+    <t>网络安全组</t>
+  </si>
+  <si>
+    <t>智能运维一体化平台</t>
+  </si>
+  <si>
+    <t>应用运维组</t>
+  </si>
+  <si>
+    <t>局总部</t>
+  </si>
+  <si>
+    <t>高危</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>二级单位</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>中危</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>任务名称</t>
+  </si>
+  <si>
+    <t>影响范围</t>
+  </si>
+  <si>
+    <t>解决方案</t>
+  </si>
+  <si>
+    <t>处理状态</t>
+  </si>
+  <si>
+    <t>二公司系统被集团渗透</t>
+  </si>
+  <si>
+    <t>约4台服务器</t>
+  </si>
+  <si>
+    <t>已联系二公司网络安全负责人排查</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>责任人</t>
+  </si>
+  <si>
+    <t>当前状态</t>
+  </si>
+  <si>
+    <t>当前进度</t>
+  </si>
+  <si>
+    <t>计划开始时间</t>
+  </si>
+  <si>
+    <t>计划完成时间（原）</t>
+  </si>
+  <si>
+    <t>计划完成时间（新）</t>
+  </si>
+  <si>
+    <t>计划延期天数</t>
+  </si>
+  <si>
+    <t>实际完成时间</t>
+  </si>
+  <si>
+    <t>耗时（天）</t>
+  </si>
+  <si>
+    <t>是否按期完成</t>
+  </si>
+  <si>
+    <t>风险提示</t>
+  </si>
+  <si>
+    <t>【日常运维】综合运维处理了事件1 件，服 
+务请求109件（其中一线65
+件），问题咨询18个，客服电 
+话1个</t>
+  </si>
+  <si>
+    <t>李思云</t>
+  </si>
+  <si>
+    <t>按时完成</t>
+  </si>
+  <si>
+    <t>营销待办未显示问题修复</t>
+  </si>
+  <si>
+    <t>刘如智</t>
+  </si>
+  <si>
+    <t>城发获取OA资讯接口前端联调</t>
+  </si>
+  <si>
+    <t>唐谦平</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>未按时完成</t>
+  </si>
+  <si>
+    <t>需求开发</t>
+  </si>
+  <si>
+    <t>城发文件上传、应用等相关接口自测</t>
+  </si>
+  <si>
+    <t>史海法</t>
+  </si>
+  <si>
+    <t>海外营销测试案例初版提供</t>
+  </si>
+  <si>
+    <t>取消浦发保理融资申请客户有效期校验</t>
+  </si>
+  <si>
+    <t>优化</t>
+  </si>
+  <si>
+    <t>【监控探针】目前10台探针离线，0台探针异常</t>
+  </si>
+  <si>
+    <t>江苏银行保理还款信息新增户名字段</t>
+  </si>
+  <si>
+    <t>城发文件上传、应用等相关接口联调</t>
+  </si>
+  <si>
+    <t>城发门户建设项目立项流程</t>
+  </si>
+  <si>
+    <t>荆婉</t>
+  </si>
+  <si>
+    <t>城发门户合同盖章</t>
+  </si>
+  <si>
+    <t>城发人员组织查询接口前端联调</t>
+  </si>
+  <si>
+    <t>门户登录异常问题查看及代码优化</t>
+  </si>
+  <si>
+    <t>已发测试环境验证-待发生产</t>
+  </si>
+  <si>
+    <t>CMDB-数据库实例录入异常跟进-和数据库监控配置(EPC)</t>
+  </si>
+  <si>
+    <t>云智慧问题排查中</t>
+  </si>
+  <si>
+    <t>新营销对接主数据需求申请单</t>
+  </si>
+  <si>
+    <t>城发门户 待办中心、角色中心接口和前端联调整</t>
+  </si>
+  <si>
+    <t>新营销需要的数据提供(脱敏)</t>
+  </si>
+  <si>
+    <t>邵总PPT材料编制</t>
+  </si>
+  <si>
+    <t>应用运维组上半年总结及下半年计划</t>
+  </si>
+  <si>
+    <t>城发公司门户计划沟通</t>
+  </si>
+  <si>
+    <t>刘壮壮</t>
+  </si>
+  <si>
+    <t>行政办公组运维系统运维事项沟通</t>
+  </si>
+  <si>
+    <t>参加城发门户八局通两端样式沟通及技术可行性沟通</t>
+  </si>
+  <si>
+    <t>城发门户获取局门户token及刷新逻辑</t>
+  </si>
+  <si>
+    <t>已开发完成，待与前端联调</t>
+  </si>
+  <si>
+    <t>营销待办异常修复</t>
+  </si>
+  <si>
+    <t>需求开发（保证金系统）：保证金获取支付方式定义接口（提供给新营销使用）</t>
+  </si>
+  <si>
+    <t>邮储银行U链与平台方网络信息填写</t>
+  </si>
+  <si>
+    <t>城发门户项目计划沟通</t>
+  </si>
+  <si>
+    <t>城发门户管理后台页面开发</t>
+  </si>
+  <si>
+    <t>上海公司报价沟通</t>
+  </si>
+  <si>
+    <t>组织devops岗位面试</t>
+  </si>
+  <si>
+    <t>字典通用接口开发和联条，修复已知bug</t>
+  </si>
+  <si>
+    <t>城发门户首页二级页面开发</t>
+  </si>
+  <si>
+    <t>城发项目前端资源协调</t>
+  </si>
+  <si>
+    <t>编辑一篇服务器分类：物理服务器、虚拟专用(VPS)、虚拟主机、云服务器</t>
+  </si>
+  <si>
+    <t>【工单】财务一体化拉取待办慢接口优化</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>城发门户登录记录查询接口开发</t>
+  </si>
+  <si>
+    <t>城发门户 个人中心接口和前端联调整</t>
+  </si>
+  <si>
+    <t>排查财务一体化接口慢分析</t>
+  </si>
+  <si>
+    <t>发布一篇公众号</t>
+  </si>
+  <si>
+    <t>城发门户OA搜索功能权限沟通</t>
+  </si>
+  <si>
+    <t>CMDB：完成东北干线项目数据录入</t>
+  </si>
+  <si>
+    <t>刘明浩</t>
+  </si>
+  <si>
+    <t>CMDB: 进行CMDB业务系统登记和修改申请流程的配置</t>
+  </si>
+  <si>
+    <t>【运维管理】编制运维中心月度汇报模板</t>
+  </si>
+  <si>
+    <t>城发生产环境和相关信息前期搭建和准备</t>
+  </si>
+  <si>
+    <t>生产门户--八局logo图标替换</t>
+  </si>
+  <si>
+    <t>业务系统服务请求流程字段添加</t>
+  </si>
+  <si>
+    <t>云汉周例会材料和周简报汇总</t>
+  </si>
+  <si>
+    <t>亓涵</t>
+  </si>
+  <si>
+    <t>跟进三公司数据泄露通报</t>
+  </si>
+  <si>
+    <t>跟进统计非信创终端数量</t>
+  </si>
+  <si>
+    <t>集团数据专线业务迁移</t>
+  </si>
+  <si>
+    <t>介晨辉</t>
+  </si>
+  <si>
+    <t>三公司日常渗透</t>
+  </si>
+  <si>
+    <t>刘鹏</t>
+  </si>
+  <si>
+    <t>局总部网络告警监控平台(Esight)安装</t>
+  </si>
+  <si>
+    <t>城发公司新部署系统映射整理</t>
+  </si>
+  <si>
+    <t>城发公司新部署系统负载均衡</t>
+  </si>
+  <si>
+    <t>海外公司系统DNS梳理重整</t>
+  </si>
+  <si>
+    <t>华为esight授权和软件包申请</t>
+  </si>
+  <si>
+    <t>编写渗透测试报告生成器v1.0</t>
+  </si>
+  <si>
+    <t>李俊辉</t>
+  </si>
+  <si>
+    <t>城发合同框采沟通</t>
+  </si>
+  <si>
+    <t>魏来</t>
+  </si>
+  <si>
+    <t>科技数字化系统复测</t>
+  </si>
+  <si>
+    <t>罗雨禾</t>
+  </si>
+  <si>
+    <t>技术中心开发安全培训</t>
+  </si>
+  <si>
+    <t>运维集采定标材料流程发起</t>
+  </si>
+  <si>
+    <t>网络安全保障项目发标</t>
+  </si>
+  <si>
+    <t>网络安全改造与运营项目材料评审</t>
+  </si>
+  <si>
+    <t>网络安全保障项目合同模板调整</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>网络安全平台</t>
-  </si>
-  <si>
-    <t>网络安全组</t>
-  </si>
-  <si>
-    <t>智能运维一体化平台</t>
-  </si>
-  <si>
-    <t>应用运维组</t>
-  </si>
-  <si>
-    <t>局总部</t>
-  </si>
-  <si>
-    <t>高危</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>二级单位</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>中危</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>紧急</t>
-  </si>
-  <si>
-    <t>任务名称</t>
-  </si>
-  <si>
-    <t>影响范围</t>
-  </si>
-  <si>
-    <t>解决方案</t>
-  </si>
-  <si>
-    <t>处理状态</t>
-  </si>
-  <si>
-    <t>二公司系统被集团渗透</t>
-  </si>
-  <si>
-    <t>约4台服务器</t>
-  </si>
-  <si>
-    <t>已联系二公司网络安全负责人排查</t>
-  </si>
-  <si>
-    <t>责任人</t>
-  </si>
-  <si>
-    <t>当前状态</t>
-  </si>
-  <si>
-    <t>当前进度</t>
-  </si>
-  <si>
-    <t>计划开始时间</t>
-  </si>
-  <si>
-    <t>计划完成时间（原）</t>
-  </si>
-  <si>
-    <t>计划完成时间（新）</t>
-  </si>
-  <si>
-    <t>计划延期天数</t>
-  </si>
-  <si>
-    <t>实际完成时间</t>
-  </si>
-  <si>
-    <t>耗时（天）</t>
-  </si>
-  <si>
-    <t>是否按期完成</t>
-  </si>
-  <si>
-    <t>风险提示</t>
-  </si>
-  <si>
-    <t>【日常运维】综合运维处理了事件0 件，服 
-务请求133件（其中一线82
-件），问题咨询22个，客服电 
-话0个</t>
-  </si>
-  <si>
-    <t>李思云</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>按时完成</t>
-  </si>
-  <si>
-    <t>营销待办未显示问题修复</t>
-  </si>
-  <si>
-    <t>刘如智</t>
-  </si>
-  <si>
-    <t>城发获取OA资讯接口前端联调</t>
-  </si>
-  <si>
-    <t>唐谦平</t>
-  </si>
-  <si>
-    <t>进行中</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>未按时完成</t>
-  </si>
-  <si>
-    <t>需求开发</t>
-  </si>
-  <si>
-    <t>城发文件上传、应用等相关接口自测</t>
-  </si>
-  <si>
-    <t>史海法</t>
-  </si>
-  <si>
-    <t>海外营销测试案例初版提供</t>
-  </si>
-  <si>
-    <t>取消浦发保理融资申请客户有效期校验</t>
-  </si>
-  <si>
-    <t>优化</t>
-  </si>
-  <si>
-    <t>【监控探针】目前11台探针离线，1台探针异常</t>
-  </si>
-  <si>
-    <t>江苏银行保理还款信息新增户名字段</t>
-  </si>
-  <si>
-    <t>城发文件上传、应用等相关接口联调</t>
-  </si>
-  <si>
-    <t>城发门户建设项目立项流程</t>
-  </si>
-  <si>
-    <t>荆婉</t>
-  </si>
-  <si>
-    <t>城发门户合同盖章</t>
-  </si>
-  <si>
-    <t>城发人员组织查询接口前端联调</t>
-  </si>
-  <si>
-    <t>门户登录异常问题查看及代码优化</t>
-  </si>
-  <si>
-    <t>已发测试环境验证-待发生产</t>
-  </si>
-  <si>
-    <t>CMDB-数据库实例录入异常跟进-和数据库监控配置(EPC)</t>
-  </si>
-  <si>
-    <t>云智慧问题排查中</t>
-  </si>
-  <si>
-    <t>新营销对接主数据需求申请单</t>
-  </si>
-  <si>
-    <t>城发门户 待办中心、角色中心接口和前端联调整</t>
-  </si>
-  <si>
-    <t>新营销需要的数据提供(脱敏)</t>
-  </si>
-  <si>
-    <t>邵总PPT材料编制</t>
-  </si>
-  <si>
-    <t>应用运维组上半年总结及下半年计划</t>
-  </si>
-  <si>
-    <t>城发公司门户计划沟通</t>
-  </si>
-  <si>
-    <t>刘壮壮</t>
-  </si>
-  <si>
-    <t>行政办公组运维系统运维事项沟通</t>
-  </si>
-  <si>
-    <t>参加城发门户八局通两端样式沟通及技术可行性沟通</t>
-  </si>
-  <si>
-    <t>城发门户获取局门户token及刷新逻辑</t>
-  </si>
-  <si>
-    <t>已开发完成，待与前端联调</t>
-  </si>
-  <si>
-    <t>营销待办异常修复</t>
-  </si>
-  <si>
-    <t>需求开发（保证金系统）：保证金获取支付方式定义接口（提供给新营销使用）</t>
-  </si>
-  <si>
-    <t>邮储银行U链与平台方网络信息填写</t>
-  </si>
-  <si>
-    <t>城发门户项目计划沟通</t>
-  </si>
-  <si>
-    <t>城发门户管理后台页面开发</t>
-  </si>
-  <si>
-    <t>上海公司报价沟通</t>
-  </si>
-  <si>
-    <t>组织devops岗位面试</t>
-  </si>
-  <si>
-    <t>字典通用接口开发和联条，修复已知bug</t>
-  </si>
-  <si>
-    <t>城发门户首页二级页面开发</t>
-  </si>
-  <si>
-    <t>城发项目前端资源协调</t>
-  </si>
-  <si>
-    <t>编辑一篇服务器分类：物理服务器、虚拟专用(VPS)、虚拟主机、云服务器</t>
-  </si>
-  <si>
-    <t>【工单】财务一体化拉取待办慢接口优化</t>
-  </si>
-  <si>
-    <t>城发门户登录记录查询接口开发</t>
-  </si>
-  <si>
-    <t>城发门户 个人中心接口和前端联调整</t>
-  </si>
-  <si>
-    <t>排查财务一体化接口慢分析</t>
-  </si>
-  <si>
-    <t>发布一篇公众号</t>
-  </si>
-  <si>
-    <t>城发门户OA搜索功能权限沟通</t>
-  </si>
-  <si>
-    <t>CMDB：完成东北干线项目数据录入</t>
-  </si>
-  <si>
-    <t>刘明浩</t>
-  </si>
-  <si>
-    <t>CMDB: 进行CMDB业务系统登记和修改申请流程的配置</t>
-  </si>
-  <si>
-    <t>【运维管理】编制运维中心月度汇报模板</t>
-  </si>
-  <si>
-    <t>城发生产环境和相关信息前期搭建和准备</t>
-  </si>
-  <si>
-    <t>生产门户--八局logo图标替换</t>
-  </si>
-  <si>
-    <t>业务系统服务请求流程字段添加</t>
-  </si>
-  <si>
-    <t>云汉周例会材料和周简报汇总</t>
-  </si>
-  <si>
-    <t>亓涵</t>
-  </si>
-  <si>
-    <t>跟进三公司数据泄露通报</t>
-  </si>
-  <si>
-    <t>跟进统计非信创终端数量</t>
-  </si>
-  <si>
-    <t>集团数据专线业务迁移</t>
-  </si>
-  <si>
-    <t>介晨辉</t>
-  </si>
-  <si>
-    <t>三公司日常渗透</t>
-  </si>
-  <si>
-    <t>刘鹏</t>
-  </si>
-  <si>
-    <t>局总部网络告警监控平台(Esight)安装</t>
-  </si>
-  <si>
-    <t>城发公司新部署系统映射整理</t>
-  </si>
-  <si>
-    <t>城发公司新部署系统负载均衡</t>
-  </si>
-  <si>
-    <t>海外公司系统DNS梳理重整</t>
-  </si>
-  <si>
-    <t>华为esight授权和软件包申请</t>
-  </si>
-  <si>
-    <t>编写渗透测试报告生成器v1.0</t>
-  </si>
-  <si>
-    <t>李俊辉</t>
-  </si>
-  <si>
-    <t>城发合同框采沟通</t>
-  </si>
-  <si>
-    <t>魏来</t>
-  </si>
-  <si>
-    <t>科技数字化系统复测</t>
-  </si>
-  <si>
-    <t>罗雨禾</t>
-  </si>
-  <si>
-    <t>技术中心开发安全培训</t>
-  </si>
-  <si>
-    <t>运维集采定标材料流程发起</t>
-  </si>
-  <si>
-    <t>网络安全保障项目发标</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>网络安全改造与运营项目材料评审</t>
-  </si>
-  <si>
-    <t>网络安全保障项目合同模板调整</t>
-  </si>
-  <si>
     <t>风险提示函与整改通知单模板编制</t>
   </si>
   <si>
@@ -561,16 +564,13 @@
     <t>田如飞</t>
   </si>
   <si>
-    <t>梳理备份平台备份任务</t>
-  </si>
-  <si>
     <t>机房日常巡检</t>
   </si>
   <si>
     <t>夏超</t>
   </si>
   <si>
-    <t>爱数anybackup课程-数据保护</t>
+    <t>爱数anybackup课程-故障排查</t>
   </si>
   <si>
     <t>方子豪</t>
@@ -701,9 +701,6 @@
     <t>处理4条云桌面用户登陆异常问题</t>
   </si>
   <si>
-    <t>0621机房停电故障复盘</t>
-  </si>
-  <si>
     <t>处理超融合平台异常任务堆积问题</t>
   </si>
   <si>
@@ -725,10 +722,10 @@
     <t>【工单】八局门户-部分二级单位新闻不全-跟进</t>
   </si>
   <si>
-    <t>【需求】新营销系统人员、组织、组织树对接主数据开发</t>
-  </si>
-  <si>
-    <t>【智能运维一体化平台】部分业务系统检测不到跟进和梳理</t>
+    <t>【新需求】新营销系统人员、组织、组织树对接主数据开发</t>
+  </si>
+  <si>
+    <t>【智能运维】部分业务系统检测不到跟进和梳理</t>
   </si>
   <si>
     <t>受周末故障影响-早于探针服务重启的业务数据检测不到-需要再次重启</t>
@@ -764,9 +761,6 @@
     <t>局总部重要会议保障（6月三级总经济师例会、股份会计信息质量提升暨2025年中报工作布置会、全局急救技能培训、股份天津117项目研讨会）</t>
   </si>
   <si>
-    <t>局总部重要会议保障（会计信息质量提升暨2025年中报工作布置会、股份压降融资成本节约财务费用专项工作部署会）</t>
-  </si>
-  <si>
     <t>【cmdb】IT资源申请与扩容服务流程动态表单字段添加</t>
   </si>
   <si>
@@ -791,10 +785,76 @@
     <t>【运维新视界】发布一篇公众号</t>
   </si>
   <si>
-    <t>进度</t>
-  </si>
-  <si>
-    <t>计划完成时间延期天数</t>
+    <t>项目管理系统虚拟机卡顿问题排查</t>
+  </si>
+  <si>
+    <t>城发资产系统、视频中心负载和策略</t>
+  </si>
+  <si>
+    <t>集团新域名私网解析策略配置</t>
+  </si>
+  <si>
+    <t>Esight平台镜像制作与安装工具部署</t>
+  </si>
+  <si>
+    <t>八局云智门户集成负载</t>
+  </si>
+  <si>
+    <t>应急管理办法合稿</t>
+  </si>
+  <si>
+    <t>【城发门户】角色权限涉及接口优化(待测试)</t>
+  </si>
+  <si>
+    <t>【营销需求】中标信息模块添加二类城市字段(列表、详情、过滤)</t>
+  </si>
+  <si>
+    <t>运维中心日报转pdf生成器</t>
+  </si>
+  <si>
+    <t>【营销需求】城市更新角色只看到二类城市更新项目清单</t>
+  </si>
+  <si>
+    <t>【城发门户需求】获取用户信息接口新增所属公司信息</t>
+  </si>
+  <si>
+    <t>【城发门户需求】iam登录接口开发</t>
+  </si>
+  <si>
+    <t>局总部重要会议保障（投委会、巡检巡察系统例会、务虚会评审会、中建字号打假维权工作推进会）</t>
+  </si>
+  <si>
+    <t>【新需求】大华保理上线协助及上线验证</t>
+  </si>
+  <si>
+    <t>局总部重要会议保障（会计信息质量提升暨2025年中报工作布置会、股份压降融资成本节约财务费用专项工作部署会、2025年工程研究院年中述职会、孙局与科技视频会）</t>
+  </si>
+  <si>
+    <t>Aiot&amp;数字建造虚拟机网络异常问题排查</t>
+  </si>
+  <si>
+    <t>【智能运维平台】平台组织和人员归属关系与主数据有差别-跟进</t>
+  </si>
+  <si>
+    <t>已知用户归属错误7311人</t>
+  </si>
+  <si>
+    <t>设备采购控制价审批</t>
+  </si>
+  <si>
+    <t>网络安全项目跟踪</t>
+  </si>
+  <si>
+    <t>【cmdb】补录数字供应链组3个系统的基础数据</t>
+  </si>
+  <si>
+    <t>【cmdb】补录运维中心25个系统的基础数据</t>
+  </si>
+  <si>
+    <t>【运维管理】编制本月生产例会PPT</t>
+  </si>
+  <si>
+    <t>完成0621机房故障复盘会议</t>
   </si>
   <si>
     <t>星御后端与主数据进行对接</t>
@@ -813,9 +873,6 @@
     <t>课题任务书确认</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>确认 UI/UE 需要数据</t>
   </si>
   <si>
@@ -826,6 +883,9 @@
   </si>
   <si>
     <t>协调UI/UE完成初稿</t>
+  </si>
+  <si>
+    <t>第三方测评沟通</t>
   </si>
   <si>
     <t>文本</t>
@@ -1795,18 +1855,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.9333333333333" customWidth="1"/>
-    <col min="2" max="2" width="44.1583333333333" customWidth="1"/>
-    <col min="3" max="3" width="7.925" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="1" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
@@ -1893,7 +1950,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="25.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1911,10 +1967,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.15" customWidth="1"/>
-    <col min="2" max="4" width="7.925" customWidth="1"/>
-    <col min="5" max="5" width="6.28333333333333" customWidth="1"/>
-    <col min="6" max="6" width="10.8583333333333" customWidth="1"/>
+    <col min="1" max="6" width="19" customWidth="1"/>
     <col min="7" max="8" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1955,247 +2008,247 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:6">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:6">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:6">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:6">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:6">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:7">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:7">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="2:7">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1" spans="2:7">
       <c r="B13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1" spans="2:7">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2220,42 +2273,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.15" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="10.8583333333333" customWidth="1"/>
-    <col min="4" max="4" width="31.5166666666667" customWidth="1"/>
-    <col min="5" max="5" width="7.925" customWidth="1"/>
+    <col min="1" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2275,66 +2327,58 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="131.133333333333" customWidth="1"/>
-    <col min="2" max="2" width="10.8583333333333" customWidth="1"/>
-    <col min="3" max="3" width="7.06666666666667" customWidth="1"/>
-    <col min="4" max="5" width="7.925" customWidth="1"/>
-    <col min="6" max="6" width="11.3583333333333" customWidth="1"/>
-    <col min="7" max="8" width="16.7833333333333" customWidth="1"/>
-    <col min="9" max="10" width="11.3583333333333" customWidth="1"/>
-    <col min="11" max="11" width="9.56666666666667" customWidth="1"/>
-    <col min="12" max="12" width="11.3583333333333" customWidth="1"/>
-    <col min="13" max="13" width="97.5333333333333" customWidth="1"/>
-    <col min="14" max="14" width="64.45" customWidth="1"/>
+    <col min="1" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
+    <col min="5" max="14" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>26</v>
@@ -2342,49 +2386,49 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:12">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="H2" s="2">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:14">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2397,7 +2441,7 @@
         <v>45820</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2">
         <v>45820</v>
@@ -2406,24 +2450,24 @@
         <v>0.4</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:14">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2436,7 +2480,7 @@
         <v>45822</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2">
         <v>45822</v>
@@ -2456,13 +2500,13 @@
         <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2475,7 +2519,7 @@
         <v>45820</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2">
         <v>45820</v>
@@ -2484,7 +2528,7 @@
         <v>0.5</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:14">
@@ -2492,10 +2536,10 @@
         <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2508,7 +2552,7 @@
         <v>45820</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J6" s="2">
         <v>45820</v>
@@ -2517,10 +2561,10 @@
         <v>0.3</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:14">
@@ -2528,13 +2572,13 @@
         <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2562,32 +2606,32 @@
         <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E8">
         <v>0.6</v>
       </c>
       <c r="F8" s="2">
-        <v>45824</v>
+        <v>45833</v>
       </c>
       <c r="G8" s="2">
-        <v>45824</v>
+        <v>45835</v>
       </c>
       <c r="H8" s="2">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J8" s="2"/>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:14">
@@ -2595,13 +2639,13 @@
         <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2629,13 +2673,13 @@
         <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2648,7 +2692,7 @@
         <v>45825</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J10" s="2">
         <v>45825</v>
@@ -2665,13 +2709,13 @@
         <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>0.5</v>
@@ -2687,7 +2731,7 @@
         <v>45824</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:13">
@@ -2695,13 +2739,13 @@
         <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2714,7 +2758,7 @@
         <v>45820</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J12" s="2">
         <v>45820</v>
@@ -2723,7 +2767,7 @@
         <v>0.5</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
         <v>98</v>
@@ -2734,13 +2778,13 @@
         <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2753,7 +2797,7 @@
         <v>45822</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J13" s="2">
         <v>45822</v>
@@ -2762,7 +2806,7 @@
         <v>0.4</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
         <v>88</v>
@@ -2773,13 +2817,13 @@
         <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2792,7 +2836,7 @@
         <v>45824</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J14" s="2">
         <v>45824</v>
@@ -2801,7 +2845,7 @@
         <v>0.5</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M14" t="s">
         <v>102</v>
@@ -2815,13 +2859,13 @@
         <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2834,7 +2878,7 @@
         <v>45824</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J15" s="2">
         <v>45824</v>
@@ -2843,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M15" t="s">
         <v>104</v>
@@ -2857,10 +2901,10 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2882,13 +2926,13 @@
         <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17">
         <v>0.7</v>
@@ -2901,13 +2945,13 @@
         <v>45825</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J17" s="2">
         <v>45825</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1" spans="1:12">
@@ -2915,13 +2959,13 @@
         <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2934,7 +2978,7 @@
         <v>45821</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J18" s="2">
         <v>45821</v>
@@ -2943,7 +2987,7 @@
         <v>0.5</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1" spans="1:12">
@@ -2951,13 +2995,13 @@
         <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2970,7 +3014,7 @@
         <v>45821</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J19" s="2">
         <v>45821</v>
@@ -2979,7 +3023,7 @@
         <v>0.2</v>
       </c>
       <c r="L19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1" spans="1:12">
@@ -2987,13 +3031,13 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3006,7 +3050,7 @@
         <v>45826</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J20" s="2">
         <v>45826</v>
@@ -3015,7 +3059,7 @@
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1" spans="1:12">
@@ -3023,13 +3067,13 @@
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3045,7 +3089,7 @@
         <v>45827</v>
       </c>
       <c r="L21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1" spans="1:12">
@@ -3053,13 +3097,13 @@
         <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3072,7 +3116,7 @@
         <v>45821</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J22" s="2">
         <v>45821</v>
@@ -3081,7 +3125,7 @@
         <v>0.2</v>
       </c>
       <c r="L22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1" spans="1:12">
@@ -3089,7 +3133,7 @@
         <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
         <v>111</v>
@@ -3105,7 +3149,7 @@
         <v>45821</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J23" s="2">
         <v>45821</v>
@@ -3114,7 +3158,7 @@
         <v>0.2</v>
       </c>
       <c r="L23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1" spans="1:12">
@@ -3122,7 +3166,7 @@
         <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>111</v>
@@ -3138,7 +3182,7 @@
         <v>45821</v>
       </c>
       <c r="I24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J24" s="2">
         <v>45821</v>
@@ -3147,7 +3191,7 @@
         <v>0.3</v>
       </c>
       <c r="L24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1" spans="1:14">
@@ -3155,10 +3199,10 @@
         <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3173,7 +3217,7 @@
         <v>45828</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J25" s="2">
         <v>45828</v>
@@ -3193,10 +3237,10 @@
         <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3210,7 +3254,7 @@
         <v>45824</v>
       </c>
       <c r="L26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1" spans="1:14">
@@ -3218,10 +3262,10 @@
         <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3240,7 +3284,7 @@
         <v>0.5</v>
       </c>
       <c r="L27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N27" t="s">
         <v>88</v>
@@ -3251,10 +3295,10 @@
         <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3271,7 +3315,7 @@
         <v>0.2</v>
       </c>
       <c r="L28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1" spans="1:12">
@@ -3279,7 +3323,7 @@
         <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
         <v>111</v>
@@ -3299,7 +3343,7 @@
         <v>0.3</v>
       </c>
       <c r="L29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1" spans="1:12">
@@ -3307,7 +3351,7 @@
         <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>111</v>
@@ -3327,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="L30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1" spans="1:12">
@@ -3335,7 +3379,7 @@
         <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>111</v>
@@ -3355,7 +3399,7 @@
         <v>0.2</v>
       </c>
       <c r="L31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1" spans="1:12">
@@ -3363,7 +3407,7 @@
         <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>111</v>
@@ -3383,7 +3427,7 @@
         <v>0.1</v>
       </c>
       <c r="L32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1" spans="1:12">
@@ -3391,7 +3435,7 @@
         <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
         <v>90</v>
@@ -3413,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1" spans="1:12">
@@ -3421,7 +3465,7 @@
         <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
         <v>111</v>
@@ -3440,7 +3484,7 @@
         <v>45825</v>
       </c>
       <c r="L34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1" spans="1:12">
@@ -3448,7 +3492,7 @@
         <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
         <v>111</v>
@@ -3467,7 +3511,7 @@
         <v>45825</v>
       </c>
       <c r="L35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1" spans="1:12">
@@ -3475,10 +3519,10 @@
         <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3491,13 +3535,13 @@
         <v>45825</v>
       </c>
       <c r="I36" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J36" s="2">
         <v>45825</v>
       </c>
       <c r="L36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1" spans="1:12">
@@ -3505,7 +3549,7 @@
         <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
         <v>90</v>
@@ -3523,7 +3567,7 @@
         <v>45832</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="J37" s="2">
         <v>45832</v>
@@ -3537,13 +3581,13 @@
     </row>
     <row r="38" ht="25.5" customHeight="1" spans="1:14">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3560,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N38" t="s">
         <v>88</v>
@@ -3568,13 +3612,13 @@
     </row>
     <row r="39" ht="25.5" customHeight="1" spans="1:12">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3587,21 +3631,21 @@
         <v>45825</v>
       </c>
       <c r="I39" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J39" s="2">
         <v>45825</v>
       </c>
       <c r="L39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1" spans="1:12">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
         <v>111</v>
@@ -3618,18 +3662,18 @@
         <v>45825</v>
       </c>
       <c r="L40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1" spans="1:12">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3642,7 +3686,7 @@
         <v>45826</v>
       </c>
       <c r="I41" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J41" s="2">
         <v>45826</v>
@@ -3651,15 +3695,15 @@
         <v>0.4</v>
       </c>
       <c r="L41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1" spans="1:12">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
         <v>111</v>
@@ -3678,18 +3722,18 @@
         <v>45827</v>
       </c>
       <c r="L42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1" spans="1:12">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3702,24 +3746,24 @@
         <v>45826</v>
       </c>
       <c r="I43" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J43" s="2">
         <v>45826</v>
       </c>
       <c r="L43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1" spans="1:12">
       <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
         <v>135</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>134</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3732,27 +3776,27 @@
         <v>45826</v>
       </c>
       <c r="I44" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J44" s="2">
         <v>45826</v>
       </c>
       <c r="L44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1" spans="1:12">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
         <v>98</v>
       </c>
       <c r="E45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F45" s="2">
         <v>45831</v>
@@ -3764,19 +3808,24 @@
         <v>45833</v>
       </c>
       <c r="I45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J45" s="2">
+        <v>45833</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
       <c r="L45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1" spans="1:12">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
         <v>90</v>
@@ -3795,15 +3844,15 @@
         <v>45828</v>
       </c>
       <c r="L46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1" spans="1:12">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>90</v>
@@ -3822,18 +3871,18 @@
         <v>45828</v>
       </c>
       <c r="L47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1" spans="1:12">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3852,18 +3901,18 @@
         <v>0.3</v>
       </c>
       <c r="L48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1" spans="1:12">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3877,18 +3926,18 @@
         <v>45827</v>
       </c>
       <c r="L49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1" spans="1:12">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3907,18 +3956,18 @@
         <v>0.3</v>
       </c>
       <c r="L50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1" spans="1:12">
       <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
         <v>142</v>
-      </c>
-      <c r="B51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" t="s">
-        <v>141</v>
       </c>
       <c r="E51">
         <v>0.7</v>
@@ -3933,22 +3982,22 @@
         <v>45835</v>
       </c>
       <c r="I51" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J51" s="2"/>
       <c r="L51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1" spans="1:12">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3967,18 +4016,18 @@
         <v>0.7</v>
       </c>
       <c r="L52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1" spans="1:12">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E53">
         <v>0.25</v>
@@ -3993,22 +4042,22 @@
         <v>45849</v>
       </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J53" s="2"/>
       <c r="L53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1" spans="1:12">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -4024,18 +4073,18 @@
         <v>45828</v>
       </c>
       <c r="L54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1" spans="1:12">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E55">
         <v>0.25</v>
@@ -4050,22 +4099,22 @@
         <v>45835</v>
       </c>
       <c r="I55" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J55" s="2"/>
       <c r="L55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1" spans="1:12">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4082,18 +4131,18 @@
         <v>3</v>
       </c>
       <c r="L56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1" spans="1:12">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4110,18 +4159,18 @@
         <v>2</v>
       </c>
       <c r="L57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1" spans="1:12">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4138,18 +4187,18 @@
         <v>2</v>
       </c>
       <c r="L58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1" spans="1:12">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4166,21 +4215,21 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1" spans="1:12">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E60">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F60" s="2">
         <v>45828</v>
@@ -4192,22 +4241,24 @@
         <v>45838</v>
       </c>
       <c r="I60" t="s">
-        <v>29</v>
-      </c>
-      <c r="J60" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J60" s="2">
+        <v>45833</v>
+      </c>
       <c r="L60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1" spans="1:12">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E61">
         <v>0.9</v>
@@ -4222,22 +4273,22 @@
         <v>45835</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J61" s="2"/>
       <c r="L61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1" spans="1:12">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4254,18 +4305,18 @@
         <v>0.5</v>
       </c>
       <c r="L62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1" spans="1:12">
       <c r="A63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
         <v>159</v>
-      </c>
-      <c r="B63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" t="s">
-        <v>158</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4282,18 +4333,18 @@
         <v>0.5</v>
       </c>
       <c r="L63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1" spans="1:12">
       <c r="A64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E64">
         <v>0.7</v>
@@ -4308,22 +4359,22 @@
         <v>45833</v>
       </c>
       <c r="I64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J64" s="2"/>
       <c r="L64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1" spans="1:12">
       <c r="A65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E65">
         <v>0.5</v>
@@ -4338,11 +4389,11 @@
         <v>45834</v>
       </c>
       <c r="I65" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="J65" s="2"/>
       <c r="L65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1" spans="1:12">
@@ -4350,10 +4401,10 @@
         <v>163</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E66">
         <v>0.4</v>
@@ -4368,13 +4419,13 @@
         <v>45831</v>
       </c>
       <c r="I66" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J66" s="2">
         <v>45831</v>
       </c>
       <c r="L66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1" spans="1:12">
@@ -4382,10 +4433,10 @@
         <v>164</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E67">
         <v>0.5</v>
@@ -4400,7 +4451,7 @@
         <v>45831</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="J67" s="2">
         <v>45832</v>
@@ -4414,13 +4465,13 @@
     </row>
     <row r="68" ht="25.5" customHeight="1" spans="1:12">
       <c r="A68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E68">
         <v>0.21</v>
@@ -4435,25 +4486,27 @@
         <v>45832</v>
       </c>
       <c r="I68" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J68" s="2">
+        <v>45833</v>
+      </c>
       <c r="L68" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1" spans="1:12">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F69" s="2">
         <v>45828</v>
@@ -4465,22 +4518,22 @@
         <v>45838</v>
       </c>
       <c r="I69" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J69" s="2"/>
       <c r="L69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1" spans="1:12">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E70">
         <v>0.7</v>
@@ -4495,22 +4548,22 @@
         <v>45838</v>
       </c>
       <c r="I70" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J70" s="2"/>
       <c r="L70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1" spans="1:12">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -4526,13 +4579,13 @@
     </row>
     <row r="72" ht="25.5" customHeight="1" spans="1:12">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E72">
         <v>0.4</v>
@@ -4547,22 +4600,22 @@
         <v>45838</v>
       </c>
       <c r="I72" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J72" s="2"/>
       <c r="L72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1" spans="1:12">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E73">
         <v>0.3</v>
@@ -4577,153 +4630,153 @@
         <v>45857</v>
       </c>
       <c r="I73" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J73" s="2"/>
       <c r="L73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1" spans="1:12">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E74">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F74" s="2">
-        <v>45834</v>
+        <v>45829</v>
       </c>
       <c r="G74" s="2">
-        <v>45838</v>
+        <v>46022</v>
       </c>
       <c r="H74" s="2">
-        <v>45838</v>
+        <v>46022</v>
       </c>
       <c r="I74" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J74" s="2"/>
       <c r="L74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1" spans="1:12">
       <c r="A75" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E75">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="F75" s="2">
         <v>45829</v>
       </c>
       <c r="G75" s="2">
-        <v>46022</v>
+        <v>45835</v>
       </c>
       <c r="H75" s="2">
-        <v>46022</v>
+        <v>45835</v>
       </c>
       <c r="I75" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J75" s="2"/>
       <c r="L75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1" spans="1:12">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E76">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F76" s="2">
         <v>45829</v>
       </c>
       <c r="G76" s="2">
-        <v>45835</v>
+        <v>45833</v>
       </c>
       <c r="H76" s="2">
-        <v>45835</v>
+        <v>45833</v>
       </c>
       <c r="I76" t="s">
-        <v>29</v>
-      </c>
-      <c r="J76" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J76" s="2">
+        <v>45832</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
       <c r="L76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1" spans="1:12">
       <c r="A77" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F77" s="2">
-        <v>45829</v>
+        <v>45828</v>
       </c>
       <c r="G77" s="2">
-        <v>45833</v>
+        <v>45838</v>
       </c>
       <c r="H77" s="2">
-        <v>45833</v>
+        <v>45838</v>
       </c>
       <c r="I77" t="s">
-        <v>29</v>
-      </c>
-      <c r="J77" s="2">
-        <v>45832</v>
-      </c>
-      <c r="K77">
-        <v>2</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J77" s="2"/>
       <c r="L77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1" spans="1:12">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E78">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="F78" s="2">
-        <v>45828</v>
+        <v>45838</v>
       </c>
       <c r="G78" s="2">
         <v>45838</v>
@@ -4732,16 +4785,16 @@
         <v>45838</v>
       </c>
       <c r="I78" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J78" s="2"/>
       <c r="L78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1" spans="1:12">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B79" t="s">
         <v>182</v>
@@ -4750,7 +4803,7 @@
         <v>183</v>
       </c>
       <c r="E79">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="F79" s="2">
         <v>45838</v>
@@ -4762,16 +4815,16 @@
         <v>45838</v>
       </c>
       <c r="I79" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J79" s="2"/>
       <c r="L79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1" spans="1:12">
       <c r="A80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B80" t="s">
         <v>182</v>
@@ -4780,28 +4833,28 @@
         <v>183</v>
       </c>
       <c r="E80">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="F80" s="2">
-        <v>45838</v>
+        <v>45833</v>
       </c>
       <c r="G80" s="2">
-        <v>45838</v>
+        <v>45833</v>
       </c>
       <c r="H80" s="2">
-        <v>45838</v>
+        <v>45833</v>
       </c>
       <c r="I80" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J80" s="2"/>
       <c r="L80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1" spans="1:12">
       <c r="A81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B81" t="s">
         <v>182</v>
@@ -4810,7 +4863,7 @@
         <v>183</v>
       </c>
       <c r="E81">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F81" s="2">
         <v>45833</v>
@@ -4822,55 +4875,59 @@
         <v>45833</v>
       </c>
       <c r="I81" t="s">
-        <v>29</v>
-      </c>
-      <c r="J81" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J81" s="2">
+        <v>45833</v>
+      </c>
       <c r="L81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1" spans="1:12">
       <c r="A82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="E82">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F82" s="2">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="G82" s="2">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="H82" s="2">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="I82" t="s">
-        <v>29</v>
-      </c>
-      <c r="J82" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J82" s="2">
+        <v>45833</v>
+      </c>
       <c r="L82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1" spans="1:12">
       <c r="A83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E83">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F83" s="2">
         <v>45831</v>
@@ -4882,180 +4939,185 @@
         <v>45835</v>
       </c>
       <c r="I83" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J83" s="2"/>
       <c r="L83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1" spans="1:12">
       <c r="A84" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C84" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E84">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F84" s="2">
         <v>45831</v>
       </c>
       <c r="G84" s="2">
-        <v>45835</v>
+        <v>45833</v>
       </c>
       <c r="H84" s="2">
-        <v>45835</v>
+        <v>45833</v>
       </c>
       <c r="I84" t="s">
-        <v>29</v>
-      </c>
-      <c r="J84" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J84" s="2">
+        <v>45833</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
       <c r="L84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1" spans="1:12">
       <c r="A85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C85" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F85" s="2">
         <v>45831</v>
       </c>
       <c r="G85" s="2">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="H85" s="2">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="I85" t="s">
-        <v>29</v>
-      </c>
-      <c r="J85" s="2">
-        <v>45833</v>
-      </c>
-      <c r="K85">
-        <v>3</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J85" s="2"/>
       <c r="L85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1" spans="1:12">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C86" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E86">
-        <v>0.1</v>
-      </c>
-      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2">
         <v>45831</v>
       </c>
-      <c r="G86" s="2">
-        <v>45835</v>
-      </c>
       <c r="H86" s="2">
-        <v>45835</v>
+        <v>45831</v>
       </c>
       <c r="I86" t="s">
-        <v>29</v>
-      </c>
-      <c r="J86" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J86" s="2">
+        <v>45831</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
       <c r="L86" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1" spans="1:12">
       <c r="A87" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F87" s="2">
+        <v>45832</v>
+      </c>
       <c r="G87" s="2">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="H87" s="2">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="I87" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J87" s="2">
-        <v>45831</v>
-      </c>
-      <c r="K87">
-        <v>3</v>
+        <v>45833</v>
       </c>
       <c r="L87" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1" spans="1:12">
       <c r="A88" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="E88">
-        <v>0.5</v>
-      </c>
-      <c r="F88" s="2">
-        <v>45832</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F88" s="2"/>
       <c r="G88" s="2">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="H88" s="2">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="I88" t="s">
-        <v>29</v>
-      </c>
-      <c r="J88" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J88" s="2">
+        <v>45831</v>
+      </c>
+      <c r="K88">
+        <v>0.7</v>
+      </c>
       <c r="L88" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1" spans="1:12">
       <c r="A89" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5068,27 +5130,27 @@
         <v>45831</v>
       </c>
       <c r="I89" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J89" s="2">
         <v>45831</v>
       </c>
       <c r="K89">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="L89" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1" spans="1:12">
       <c r="A90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C90" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5101,276 +5163,277 @@
         <v>45831</v>
       </c>
       <c r="I90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J90" s="2">
         <v>45831</v>
       </c>
       <c r="K90">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L90" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1" spans="1:12">
       <c r="A91" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
-      <c r="F91" s="2"/>
+      <c r="F91" s="2">
+        <v>45831</v>
+      </c>
       <c r="G91" s="2">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="H91" s="2">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="I91" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J91" s="2">
-        <v>45831</v>
-      </c>
-      <c r="K91">
-        <v>0.3</v>
+        <v>45833</v>
       </c>
       <c r="L91" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1" spans="1:12">
       <c r="A92" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E92">
-        <v>0.7</v>
-      </c>
-      <c r="F92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2">
         <v>45831</v>
       </c>
-      <c r="G92" s="2">
-        <v>45833</v>
-      </c>
       <c r="H92" s="2">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="I92" t="s">
-        <v>29</v>
-      </c>
-      <c r="J92" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J92" s="2">
+        <v>45831</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
       <c r="L92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1" spans="1:12">
       <c r="A93" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C93" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
-      <c r="F93" s="2"/>
+      <c r="F93" s="2">
+        <v>45831</v>
+      </c>
       <c r="G93" s="2">
         <v>45831</v>
       </c>
-      <c r="H93" s="2">
-        <v>45831</v>
-      </c>
-      <c r="I93" t="s">
-        <v>29</v>
-      </c>
+      <c r="H93" s="2"/>
       <c r="J93" s="2">
         <v>45831</v>
       </c>
-      <c r="K93">
-        <v>3</v>
-      </c>
       <c r="L93" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1" spans="1:12">
       <c r="A94" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C94" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94" s="2">
-        <v>45831</v>
-      </c>
+      <c r="F94" s="2"/>
       <c r="G94" s="2">
         <v>45831</v>
       </c>
-      <c r="H94" s="2"/>
+      <c r="H94" s="2">
+        <v>45831</v>
+      </c>
+      <c r="I94" t="s">
+        <v>35</v>
+      </c>
       <c r="J94" s="2">
         <v>45831</v>
       </c>
+      <c r="K94">
+        <v>0.2</v>
+      </c>
       <c r="L94" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1" spans="1:12">
       <c r="A95" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C95" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95" s="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="F95" s="2">
+        <v>45831</v>
+      </c>
       <c r="G95" s="2">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="H95" s="2">
-        <v>45831</v>
+        <v>45834</v>
       </c>
       <c r="I95" t="s">
-        <v>29</v>
-      </c>
-      <c r="J95" s="2">
-        <v>45831</v>
-      </c>
-      <c r="K95">
-        <v>0.2</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="J95" s="2"/>
       <c r="L95" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1" spans="1:12">
       <c r="A96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C96" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="E96">
-        <v>0.7</v>
-      </c>
-      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2">
         <v>45831</v>
       </c>
-      <c r="G96" s="2">
-        <v>45832</v>
-      </c>
       <c r="H96" s="2">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="I96" t="s">
-        <v>30</v>
-      </c>
-      <c r="J96" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J96" s="2">
+        <v>45831</v>
+      </c>
+      <c r="K96">
+        <v>0.5</v>
+      </c>
       <c r="L96" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1" spans="1:12">
       <c r="A97" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97" s="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="F97" s="2">
+        <v>45831</v>
+      </c>
       <c r="G97" s="2">
-        <v>45831</v>
+        <v>45835</v>
       </c>
       <c r="H97" s="2">
-        <v>45831</v>
+        <v>45835</v>
       </c>
       <c r="I97" t="s">
-        <v>29</v>
-      </c>
-      <c r="J97" s="2">
-        <v>45831</v>
-      </c>
-      <c r="K97">
-        <v>0.5</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J97" s="2"/>
       <c r="L97" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1" spans="1:12">
       <c r="A98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C98" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F98" s="2">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="G98" s="2">
-        <v>45835</v>
+        <v>45833</v>
       </c>
       <c r="H98" s="2">
-        <v>45835</v>
+        <v>45833</v>
       </c>
       <c r="I98" t="s">
-        <v>29</v>
-      </c>
-      <c r="J98" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J98" s="2">
+        <v>45833</v>
+      </c>
       <c r="L98" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1" spans="1:12">
       <c r="A99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C99" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E99">
         <v>0.5</v>
@@ -5385,49 +5448,56 @@
         <v>45833</v>
       </c>
       <c r="I99" t="s">
-        <v>29</v>
-      </c>
-      <c r="J99" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J99" s="2">
+        <v>45833</v>
+      </c>
       <c r="L99" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1" spans="1:12">
       <c r="A100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C100" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="E100">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F100" s="2">
+        <v>45831</v>
+      </c>
+      <c r="G100" s="2">
         <v>45832</v>
       </c>
-      <c r="G100" s="2">
-        <v>45833</v>
-      </c>
       <c r="H100" s="2">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="I100" t="s">
-        <v>29</v>
-      </c>
-      <c r="J100" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J100" s="2">
+        <v>45832</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
       <c r="L100" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1" spans="1:12">
       <c r="A101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C101" t="s">
         <v>90</v>
@@ -5435,34 +5505,32 @@
       <c r="E101">
         <v>1</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="2"/>
+      <c r="G101" s="2">
         <v>45831</v>
       </c>
-      <c r="G101" s="2">
-        <v>45832</v>
-      </c>
       <c r="H101" s="2">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="I101" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J101" s="2">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L101" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" ht="25.5" customHeight="1" spans="1:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1" spans="1:14">
       <c r="A102" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C102" t="s">
         <v>90</v>
@@ -5470,103 +5538,103 @@
       <c r="E102">
         <v>1</v>
       </c>
-      <c r="F102" s="2"/>
+      <c r="F102" s="2">
+        <v>45831</v>
+      </c>
       <c r="G102" s="2">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="H102" s="2">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="I102" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J102" s="2">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="K102">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L102" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" ht="25.5" customHeight="1" spans="1:14">
+        <v>81</v>
+      </c>
+      <c r="M102" t="s">
+        <v>208</v>
+      </c>
+      <c r="N102" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" ht="25.5" customHeight="1" spans="1:12">
       <c r="A103" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C103" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F103" s="2">
         <v>45831</v>
       </c>
       <c r="G103" s="2">
-        <v>45832</v>
-      </c>
-      <c r="H103" s="2">
-        <v>45832</v>
-      </c>
-      <c r="I103" t="s">
-        <v>29</v>
-      </c>
+        <v>45833</v>
+      </c>
+      <c r="H103" s="2"/>
       <c r="J103" s="2">
-        <v>45832</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
+        <v>45831</v>
       </c>
       <c r="L103" t="s">
-        <v>80</v>
-      </c>
-      <c r="M103" t="s">
-        <v>208</v>
-      </c>
-      <c r="N103" t="s">
-        <v>209</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1" spans="1:12">
       <c r="A104" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E104">
-        <v>0.4</v>
-      </c>
-      <c r="F104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2">
         <v>45831</v>
       </c>
-      <c r="G104" s="2">
-        <v>45833</v>
-      </c>
-      <c r="H104" s="2"/>
+      <c r="H104" s="2">
+        <v>45831</v>
+      </c>
+      <c r="I104" t="s">
+        <v>35</v>
+      </c>
       <c r="J104" s="2">
         <v>45831</v>
       </c>
+      <c r="K104">
+        <v>0.1</v>
+      </c>
       <c r="L104" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1" spans="1:12">
       <c r="A105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5579,7 +5647,7 @@
         <v>45831</v>
       </c>
       <c r="I105" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J105" s="2">
         <v>45831</v>
@@ -5588,18 +5656,18 @@
         <v>0.1</v>
       </c>
       <c r="L105" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1" spans="1:12">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C106" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5612,7 +5680,7 @@
         <v>45831</v>
       </c>
       <c r="I106" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J106" s="2">
         <v>45831</v>
@@ -5621,18 +5689,18 @@
         <v>0.1</v>
       </c>
       <c r="L106" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1" spans="1:12">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5645,7 +5713,7 @@
         <v>45831</v>
       </c>
       <c r="I107" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J107" s="2">
         <v>45831</v>
@@ -5654,87 +5722,84 @@
         <v>0.1</v>
       </c>
       <c r="L107" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1" spans="1:12">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C108" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" s="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="F108" s="2">
+        <v>45831</v>
+      </c>
       <c r="G108" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="H108" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="I108" t="s">
-        <v>29</v>
-      </c>
-      <c r="J108" s="2">
-        <v>45831</v>
-      </c>
-      <c r="K108">
-        <v>0.1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J108" s="2"/>
       <c r="L108" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1" spans="1:12">
       <c r="A109" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C109" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="E109">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F109" s="2">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="G109" s="2">
-        <v>45838</v>
+        <v>45835</v>
       </c>
       <c r="H109" s="2">
-        <v>45838</v>
+        <v>45835</v>
       </c>
       <c r="I109" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J109" s="2"/>
       <c r="L109" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1" spans="1:12">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C110" t="s">
         <v>98</v>
       </c>
       <c r="E110">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="F110" s="2">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="G110" s="2">
         <v>45835</v>
@@ -5743,52 +5808,55 @@
         <v>45835</v>
       </c>
       <c r="I110" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J110" s="2"/>
       <c r="L110" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1" spans="1:12">
       <c r="A111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C111" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="E111">
-        <v>0.1</v>
-      </c>
-      <c r="F111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2">
         <v>45831</v>
       </c>
-      <c r="G111" s="2">
-        <v>45835</v>
-      </c>
       <c r="H111" s="2">
-        <v>45835</v>
+        <v>45831</v>
       </c>
       <c r="I111" t="s">
-        <v>29</v>
-      </c>
-      <c r="J111" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J111" s="2">
+        <v>45831</v>
+      </c>
+      <c r="K111">
+        <v>0.2</v>
+      </c>
       <c r="L111" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1" spans="1:12">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C112" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5801,7 +5869,7 @@
         <v>45831</v>
       </c>
       <c r="I112" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J112" s="2">
         <v>45831</v>
@@ -5810,18 +5878,18 @@
         <v>0.2</v>
       </c>
       <c r="L112" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1" spans="1:12">
       <c r="A113" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C113" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5834,7 +5902,7 @@
         <v>45831</v>
       </c>
       <c r="I113" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J113" s="2">
         <v>45831</v>
@@ -5843,123 +5911,126 @@
         <v>0.2</v>
       </c>
       <c r="L113" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1" spans="1:12">
       <c r="A114" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C114" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="E114">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F114" s="2">
         <v>45831</v>
       </c>
       <c r="G114" s="2">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="H114" s="2">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="I114" t="s">
-        <v>29</v>
-      </c>
-      <c r="J114" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J114" s="2">
+        <v>45831</v>
+      </c>
+      <c r="K114">
+        <v>0.8</v>
+      </c>
       <c r="L114" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1" spans="1:12">
       <c r="A115" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B115" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C115" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
-      <c r="F115" s="2"/>
+      <c r="F115" s="2">
+        <v>45832</v>
+      </c>
       <c r="G115" s="2">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="H115" s="2">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="I115" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J115" s="2">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="K115">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="L115" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1" spans="1:12">
       <c r="A116" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C116" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
-      <c r="F116" s="2">
-        <v>45831</v>
-      </c>
+      <c r="F116" s="2"/>
       <c r="G116" s="2">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="H116" s="2">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="I116" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J116" s="2">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="K116">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L116" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1" spans="1:12">
       <c r="A117" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C117" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
-      <c r="F117" s="2">
-        <v>45832</v>
-      </c>
+      <c r="F117" s="2"/>
       <c r="G117" s="2">
         <v>45832</v>
       </c>
@@ -5967,32 +6038,34 @@
         <v>45832</v>
       </c>
       <c r="I117" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J117" s="2">
         <v>45832</v>
       </c>
       <c r="K117">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="L117" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1" spans="1:12">
       <c r="A118" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C118" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
-      <c r="F118" s="2"/>
+      <c r="F118" s="2">
+        <v>45832</v>
+      </c>
       <c r="G118" s="2">
         <v>45832</v>
       </c>
@@ -6000,188 +6073,191 @@
         <v>45832</v>
       </c>
       <c r="I118" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J118" s="2">
         <v>45832</v>
       </c>
       <c r="K118">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L118" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1" spans="1:12">
       <c r="A119" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C119" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119" s="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="F119" s="2">
+        <v>45832</v>
+      </c>
       <c r="G119" s="2">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="H119" s="2">
-        <v>45832</v>
+        <v>45835</v>
       </c>
       <c r="I119" t="s">
-        <v>29</v>
-      </c>
-      <c r="J119" s="2">
-        <v>45832</v>
-      </c>
-      <c r="K119">
-        <v>0.5</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="J119" s="2"/>
       <c r="L119" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1" spans="1:12">
       <c r="A120" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C120" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F120" s="2">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="G120" s="2">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="H120" s="2">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="I120" t="s">
-        <v>29</v>
-      </c>
-      <c r="J120" s="2">
-        <v>45832</v>
-      </c>
-      <c r="K120">
-        <v>0.3</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J120" s="2"/>
       <c r="L120" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1" spans="1:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1" spans="1:14">
       <c r="A121" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C121" t="s">
         <v>90</v>
       </c>
       <c r="E121">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F121" s="2">
         <v>45832</v>
       </c>
       <c r="G121" s="2">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="H121" s="2">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="I121" t="s">
-        <v>29</v>
-      </c>
-      <c r="J121" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J121" s="2">
+        <v>45833</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
       <c r="L121" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N121" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1" spans="1:12">
       <c r="A122" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C122" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E122">
-        <v>0.5</v>
-      </c>
-      <c r="F122" s="2">
-        <v>45831</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F122" s="2"/>
       <c r="G122" s="2">
-        <v>45834</v>
+        <v>45832</v>
       </c>
       <c r="H122" s="2">
-        <v>45834</v>
+        <v>45832</v>
       </c>
       <c r="I122" t="s">
-        <v>29</v>
-      </c>
-      <c r="J122" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J122" s="2">
+        <v>45832</v>
+      </c>
+      <c r="K122">
+        <v>0.3</v>
+      </c>
       <c r="L122" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="123" ht="25.5" customHeight="1" spans="1:14">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" ht="25.5" customHeight="1" spans="1:12">
       <c r="A123" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C123" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E123">
-        <v>0.1</v>
-      </c>
-      <c r="F123" s="2">
+        <v>1</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2">
         <v>45832</v>
       </c>
-      <c r="G123" s="2">
-        <v>45835</v>
-      </c>
       <c r="H123" s="2">
-        <v>45835</v>
+        <v>45832</v>
       </c>
       <c r="I123" t="s">
-        <v>29</v>
-      </c>
-      <c r="J123" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J123" s="2">
+        <v>45832</v>
+      </c>
+      <c r="K123">
+        <v>0.3</v>
+      </c>
       <c r="L123" t="s">
-        <v>80</v>
-      </c>
-      <c r="N123" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1" spans="1:12">
       <c r="A124" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C124" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6194,27 +6270,27 @@
         <v>45832</v>
       </c>
       <c r="I124" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J124" s="2">
         <v>45832</v>
       </c>
       <c r="K124">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L124" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1" spans="1:12">
       <c r="A125" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C125" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6227,27 +6303,27 @@
         <v>45832</v>
       </c>
       <c r="I125" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J125" s="2">
         <v>45832</v>
       </c>
       <c r="K125">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L125" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1" spans="1:12">
       <c r="A126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6260,27 +6336,27 @@
         <v>45832</v>
       </c>
       <c r="I126" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J126" s="2">
         <v>45832</v>
       </c>
       <c r="K126">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="L126" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1" spans="1:12">
       <c r="A127" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6293,27 +6369,27 @@
         <v>45832</v>
       </c>
       <c r="I127" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J127" s="2">
         <v>45832</v>
       </c>
       <c r="K127">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="L127" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1" spans="1:12">
       <c r="A128" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6326,431 +6402,1062 @@
         <v>45832</v>
       </c>
       <c r="I128" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J128" s="2">
         <v>45832</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L128" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1" spans="1:12">
       <c r="A129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B129" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129" s="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="F129" s="2">
+        <v>45832</v>
+      </c>
       <c r="G129" s="2">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="H129" s="2">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="I129" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J129" s="2">
-        <v>45832</v>
-      </c>
-      <c r="K129">
-        <v>2</v>
+        <v>45834</v>
       </c>
       <c r="L129" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1" spans="1:12">
       <c r="A130" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C130" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130" s="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="F130" s="2">
+        <v>45832</v>
+      </c>
       <c r="G130" s="2">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="H130" s="2">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="I130" t="s">
-        <v>29</v>
-      </c>
-      <c r="J130" s="2">
-        <v>45832</v>
-      </c>
-      <c r="K130">
-        <v>2</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J130" s="2"/>
       <c r="L130" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1" spans="1:12">
       <c r="A131" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B131" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C131" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="E131">
-        <v>0.3</v>
-      </c>
-      <c r="F131" s="2">
+        <v>1</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2">
         <v>45832</v>
       </c>
-      <c r="G131" s="2">
-        <v>45834</v>
-      </c>
       <c r="H131" s="2">
-        <v>45834</v>
+        <v>45832</v>
       </c>
       <c r="I131" t="s">
-        <v>29</v>
-      </c>
-      <c r="J131" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J131" s="2">
+        <v>45832</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
       <c r="L131" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1" spans="1:12">
       <c r="A132" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B132" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C132" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2">
+        <v>45832</v>
+      </c>
+      <c r="H132" s="2">
+        <v>45832</v>
+      </c>
+      <c r="I132" t="s">
+        <v>35</v>
+      </c>
+      <c r="J132" s="2">
+        <v>45832</v>
+      </c>
+      <c r="K132">
         <v>0.3</v>
       </c>
-      <c r="F132" s="2">
-        <v>45832</v>
-      </c>
-      <c r="G132" s="2">
-        <v>45834</v>
-      </c>
-      <c r="H132" s="2">
-        <v>45834</v>
-      </c>
-      <c r="I132" t="s">
-        <v>29</v>
-      </c>
-      <c r="J132" s="2"/>
       <c r="L132" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1" spans="1:12">
       <c r="A133" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C133" t="s">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="E133">
         <v>1</v>
       </c>
-      <c r="F133" s="2"/>
+      <c r="F133" s="2">
+        <v>45831</v>
+      </c>
       <c r="G133" s="2">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="H133" s="2">
         <v>45832</v>
       </c>
       <c r="I133" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J133" s="2">
         <v>45832</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L133" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1" spans="1:12">
       <c r="A134" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C134" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F134" s="2">
         <v>45833</v>
       </c>
       <c r="G134" s="2">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="H134" s="2">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="I134" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J134" s="2"/>
       <c r="L134" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1" spans="1:12">
       <c r="A135" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="C135" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135" s="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="F135" s="2">
+        <v>45831</v>
+      </c>
       <c r="G135" s="2">
-        <v>45832</v>
+        <v>45853</v>
       </c>
       <c r="H135" s="2">
-        <v>45832</v>
+        <v>45853</v>
       </c>
       <c r="I135" t="s">
-        <v>29</v>
-      </c>
-      <c r="J135" s="2">
-        <v>45832</v>
-      </c>
-      <c r="K135">
-        <v>0.3</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J135" s="2"/>
       <c r="L135" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1" spans="1:12">
       <c r="A136" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="C136" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F136" s="2">
         <v>45831</v>
       </c>
       <c r="G136" s="2">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="H136" s="2">
-        <v>45832</v>
+        <v>45838</v>
       </c>
       <c r="I136" t="s">
-        <v>30</v>
-      </c>
-      <c r="J136" s="2">
-        <v>45832</v>
-      </c>
-      <c r="K136">
-        <v>0.5</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J136" s="2"/>
       <c r="L136" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="137" ht="25.5" customHeight="1" spans="1:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1" spans="1:14">
       <c r="A137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="C137" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F137" s="2">
-        <v>45833</v>
+        <v>45823</v>
       </c>
       <c r="G137" s="2">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="H137" s="2">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="I137" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J137" s="2"/>
       <c r="L137" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N137" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="138" ht="25.5" customHeight="1" spans="1:12">
       <c r="A138" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B138" t="s">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="C138" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="E138">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F138" s="2">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="G138" s="2">
-        <v>45853</v>
-      </c>
-      <c r="H138" s="2"/>
-      <c r="J138" s="2"/>
+        <v>45833</v>
+      </c>
+      <c r="H138" s="2">
+        <v>45833</v>
+      </c>
+      <c r="I138" t="s">
+        <v>35</v>
+      </c>
+      <c r="J138" s="2">
+        <v>45833</v>
+      </c>
+      <c r="K138">
+        <v>0.4</v>
+      </c>
       <c r="L138" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1" spans="1:12">
       <c r="A139" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B139" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="C139" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E139">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="F139" s="2">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="G139" s="2">
-        <v>45838</v>
-      </c>
-      <c r="H139" s="2"/>
+        <v>45834</v>
+      </c>
+      <c r="H139" s="2">
+        <v>45834</v>
+      </c>
+      <c r="I139" t="s">
+        <v>35</v>
+      </c>
       <c r="J139" s="2"/>
       <c r="L139" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="140" ht="25.5" customHeight="1" spans="1:14">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" ht="25.5" customHeight="1" spans="1:12">
       <c r="A140" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B140" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="C140" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="E140">
-        <v>0.3</v>
-      </c>
-      <c r="F140" s="2">
-        <v>45823</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F140" s="2"/>
       <c r="G140" s="2">
-        <v>45838</v>
-      </c>
-      <c r="H140" s="2"/>
-      <c r="J140" s="2"/>
+        <v>45833</v>
+      </c>
+      <c r="H140" s="2">
+        <v>45833</v>
+      </c>
+      <c r="I140" t="s">
+        <v>35</v>
+      </c>
+      <c r="J140" s="2">
+        <v>45833</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
       <c r="L140" t="s">
-        <v>80</v>
-      </c>
-      <c r="N140" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="141" ht="25.5" customHeight="1" spans="2:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A141" t="s">
+        <v>250</v>
+      </c>
       <c r="B141" t="s">
-        <v>182</v>
+        <v>44</v>
+      </c>
+      <c r="C141" t="s">
+        <v>146</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
       </c>
       <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="J141" s="2"/>
+      <c r="G141" s="2">
+        <v>45833</v>
+      </c>
+      <c r="H141" s="2">
+        <v>45833</v>
+      </c>
+      <c r="I141" t="s">
+        <v>35</v>
+      </c>
+      <c r="J141" s="2">
+        <v>45833</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
       <c r="L141" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1" spans="1:12">
       <c r="A142" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C142" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
-      <c r="F142" s="2">
-        <v>45833</v>
-      </c>
+      <c r="F142" s="2"/>
       <c r="G142" s="2">
         <v>45833</v>
       </c>
-      <c r="H142" s="2"/>
+      <c r="H142" s="2">
+        <v>45833</v>
+      </c>
+      <c r="I142" t="s">
+        <v>35</v>
+      </c>
       <c r="J142" s="2">
         <v>45833</v>
       </c>
       <c r="K142">
+        <v>3</v>
+      </c>
+      <c r="L142" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A143" t="s">
+        <v>252</v>
+      </c>
+      <c r="B143" t="s">
+        <v>44</v>
+      </c>
+      <c r="C143" t="s">
+        <v>146</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2">
+        <v>45833</v>
+      </c>
+      <c r="H143" s="2">
+        <v>45833</v>
+      </c>
+      <c r="I143" t="s">
+        <v>35</v>
+      </c>
+      <c r="J143" s="2">
+        <v>45833</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A144" t="s">
+        <v>253</v>
+      </c>
+      <c r="B144" t="s">
+        <v>32</v>
+      </c>
+      <c r="C144" t="s">
+        <v>178</v>
+      </c>
+      <c r="E144">
+        <v>0.2</v>
+      </c>
+      <c r="F144" s="2">
+        <v>45834</v>
+      </c>
+      <c r="G144" s="2">
+        <v>45835</v>
+      </c>
+      <c r="H144" s="2">
+        <v>45835</v>
+      </c>
+      <c r="I144" t="s">
+        <v>35</v>
+      </c>
+      <c r="J144" s="2"/>
+      <c r="L144" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A145" t="s">
+        <v>254</v>
+      </c>
+      <c r="B145" t="s">
+        <v>46</v>
+      </c>
+      <c r="C145" t="s">
+        <v>83</v>
+      </c>
+      <c r="E145">
+        <v>0.8</v>
+      </c>
+      <c r="F145" s="2">
+        <v>45833</v>
+      </c>
+      <c r="G145" s="2">
+        <v>45834</v>
+      </c>
+      <c r="H145" s="2">
+        <v>45834</v>
+      </c>
+      <c r="I145" t="s">
+        <v>35</v>
+      </c>
+      <c r="J145" s="2"/>
+      <c r="L145" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A146" t="s">
+        <v>255</v>
+      </c>
+      <c r="B146" t="s">
+        <v>46</v>
+      </c>
+      <c r="C146" t="s">
+        <v>83</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2">
+        <v>45833</v>
+      </c>
+      <c r="H146" s="2">
+        <v>45833</v>
+      </c>
+      <c r="I146" t="s">
+        <v>35</v>
+      </c>
+      <c r="J146" s="2">
+        <v>45833</v>
+      </c>
+      <c r="K146">
+        <v>0.6</v>
+      </c>
+      <c r="L146" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A147" t="s">
+        <v>256</v>
+      </c>
+      <c r="B147" t="s">
+        <v>44</v>
+      </c>
+      <c r="C147" t="s">
+        <v>155</v>
+      </c>
+      <c r="E147">
+        <v>0.2</v>
+      </c>
+      <c r="F147" s="2">
+        <v>45834</v>
+      </c>
+      <c r="G147" s="2">
+        <v>45842</v>
+      </c>
+      <c r="H147" s="2">
+        <v>45842</v>
+      </c>
+      <c r="I147" t="s">
+        <v>35</v>
+      </c>
+      <c r="J147" s="2"/>
+      <c r="L147" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A148" t="s">
+        <v>257</v>
+      </c>
+      <c r="B148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C148" t="s">
+        <v>83</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2">
+        <v>45833</v>
+      </c>
+      <c r="H148" s="2">
+        <v>45833</v>
+      </c>
+      <c r="I148" t="s">
+        <v>35</v>
+      </c>
+      <c r="J148" s="2">
+        <v>45833</v>
+      </c>
+      <c r="K148">
         <v>0.4</v>
       </c>
-      <c r="L142" t="s">
-        <v>80</v>
+      <c r="L148" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A149" t="s">
+        <v>258</v>
+      </c>
+      <c r="B149" t="s">
+        <v>46</v>
+      </c>
+      <c r="C149" t="s">
+        <v>85</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2">
+        <v>45833</v>
+      </c>
+      <c r="H149" s="2">
+        <v>45833</v>
+      </c>
+      <c r="I149" t="s">
+        <v>35</v>
+      </c>
+      <c r="J149" s="2">
+        <v>45833</v>
+      </c>
+      <c r="K149">
+        <v>0.3</v>
+      </c>
+      <c r="L149" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="150" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A150" t="s">
+        <v>259</v>
+      </c>
+      <c r="B150" t="s">
+        <v>46</v>
+      </c>
+      <c r="C150" t="s">
+        <v>85</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2">
+        <v>45833</v>
+      </c>
+      <c r="H150" s="2">
+        <v>45833</v>
+      </c>
+      <c r="I150" t="s">
+        <v>35</v>
+      </c>
+      <c r="J150" s="2">
+        <v>45833</v>
+      </c>
+      <c r="K150">
+        <v>0.2</v>
+      </c>
+      <c r="L150" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A151" t="s">
+        <v>260</v>
+      </c>
+      <c r="B151" t="s">
+        <v>32</v>
+      </c>
+      <c r="C151" t="s">
+        <v>176</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151" s="2">
+        <v>45834</v>
+      </c>
+      <c r="G151" s="2">
+        <v>45834</v>
+      </c>
+      <c r="H151" s="2">
+        <v>45834</v>
+      </c>
+      <c r="I151" t="s">
+        <v>35</v>
+      </c>
+      <c r="J151" s="2"/>
+      <c r="L151" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A152" t="s">
+        <v>261</v>
+      </c>
+      <c r="B152" t="s">
+        <v>46</v>
+      </c>
+      <c r="C152" t="s">
+        <v>85</v>
+      </c>
+      <c r="E152">
+        <v>0.4</v>
+      </c>
+      <c r="F152" s="2">
+        <v>45833</v>
+      </c>
+      <c r="G152" s="2">
+        <v>45834</v>
+      </c>
+      <c r="H152" s="2">
+        <v>45834</v>
+      </c>
+      <c r="I152" t="s">
+        <v>35</v>
+      </c>
+      <c r="J152" s="2"/>
+      <c r="L152" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A153" t="s">
+        <v>262</v>
+      </c>
+      <c r="B153" t="s">
+        <v>32</v>
+      </c>
+      <c r="C153" t="s">
+        <v>176</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2">
+        <v>45833</v>
+      </c>
+      <c r="H153" s="2">
+        <v>45833</v>
+      </c>
+      <c r="I153" t="s">
+        <v>35</v>
+      </c>
+      <c r="J153" s="2">
+        <v>45833</v>
+      </c>
+      <c r="L153" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="154" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A154" t="s">
+        <v>263</v>
+      </c>
+      <c r="B154" t="s">
+        <v>32</v>
+      </c>
+      <c r="C154" t="s">
+        <v>174</v>
+      </c>
+      <c r="E154">
+        <v>0.2</v>
+      </c>
+      <c r="F154" s="2">
+        <v>45833</v>
+      </c>
+      <c r="G154" s="2">
+        <v>45834</v>
+      </c>
+      <c r="H154" s="2">
+        <v>45834</v>
+      </c>
+      <c r="I154" t="s">
+        <v>35</v>
+      </c>
+      <c r="J154" s="2"/>
+      <c r="L154" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" ht="25.5" customHeight="1" spans="1:13">
+      <c r="A155" t="s">
+        <v>264</v>
+      </c>
+      <c r="B155" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" t="s">
+        <v>90</v>
+      </c>
+      <c r="E155">
+        <v>0.3</v>
+      </c>
+      <c r="F155" s="2">
+        <v>45833</v>
+      </c>
+      <c r="G155" s="2">
+        <v>45835</v>
+      </c>
+      <c r="H155" s="2">
+        <v>45835</v>
+      </c>
+      <c r="I155" t="s">
+        <v>35</v>
+      </c>
+      <c r="J155" s="2"/>
+      <c r="L155" t="s">
+        <v>81</v>
+      </c>
+      <c r="M155" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="156" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A156" t="s">
+        <v>266</v>
+      </c>
+      <c r="B156" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" t="s">
+        <v>157</v>
+      </c>
+      <c r="E156">
+        <v>0.3</v>
+      </c>
+      <c r="F156" s="2">
+        <v>45833</v>
+      </c>
+      <c r="G156" s="2">
+        <v>45834</v>
+      </c>
+      <c r="H156" s="2">
+        <v>45834</v>
+      </c>
+      <c r="I156" t="s">
+        <v>35</v>
+      </c>
+      <c r="J156" s="2"/>
+      <c r="L156" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="157" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A157" t="s">
+        <v>267</v>
+      </c>
+      <c r="B157" t="s">
+        <v>44</v>
+      </c>
+      <c r="C157" t="s">
+        <v>157</v>
+      </c>
+      <c r="E157">
+        <v>0.3</v>
+      </c>
+      <c r="F157" s="2">
+        <v>45833</v>
+      </c>
+      <c r="G157" s="2">
+        <v>45834</v>
+      </c>
+      <c r="H157" s="2">
+        <v>45834</v>
+      </c>
+      <c r="I157" t="s">
+        <v>35</v>
+      </c>
+      <c r="J157" s="2"/>
+      <c r="L157" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A158" t="s">
+        <v>268</v>
+      </c>
+      <c r="B158" t="s">
+        <v>46</v>
+      </c>
+      <c r="C158" t="s">
+        <v>135</v>
+      </c>
+      <c r="E158">
+        <v>0.05</v>
+      </c>
+      <c r="F158" s="2">
+        <v>45833</v>
+      </c>
+      <c r="G158" s="2">
+        <v>45834</v>
+      </c>
+      <c r="H158" s="2">
+        <v>45834</v>
+      </c>
+      <c r="I158" t="s">
+        <v>35</v>
+      </c>
+      <c r="J158" s="2"/>
+      <c r="L158" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="159" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A159" t="s">
+        <v>269</v>
+      </c>
+      <c r="B159" t="s">
+        <v>46</v>
+      </c>
+      <c r="C159" t="s">
+        <v>135</v>
+      </c>
+      <c r="E159">
+        <v>0.05</v>
+      </c>
+      <c r="F159" s="2">
+        <v>45833</v>
+      </c>
+      <c r="G159" s="2">
+        <v>45834</v>
+      </c>
+      <c r="H159" s="2">
+        <v>45834</v>
+      </c>
+      <c r="I159" t="s">
+        <v>35</v>
+      </c>
+      <c r="J159" s="2"/>
+      <c r="L159" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="160" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A160" t="s">
+        <v>270</v>
+      </c>
+      <c r="B160" t="s">
+        <v>46</v>
+      </c>
+      <c r="C160" t="s">
+        <v>98</v>
+      </c>
+      <c r="E160">
+        <v>0.3</v>
+      </c>
+      <c r="F160" s="2">
+        <v>45834</v>
+      </c>
+      <c r="G160" s="2">
+        <v>45835</v>
+      </c>
+      <c r="H160" s="2">
+        <v>45835</v>
+      </c>
+      <c r="I160" t="s">
+        <v>35</v>
+      </c>
+      <c r="J160" s="2"/>
+      <c r="L160" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="161" ht="25.5" customHeight="1" spans="1:12">
+      <c r="A161" t="s">
+        <v>271</v>
+      </c>
+      <c r="B161" t="s">
+        <v>32</v>
+      </c>
+      <c r="C161" t="s">
+        <v>170</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2">
+        <v>45832</v>
+      </c>
+      <c r="H161" s="2">
+        <v>45833</v>
+      </c>
+      <c r="I161" t="s">
+        <v>34</v>
+      </c>
+      <c r="J161" s="2">
+        <v>45833</v>
+      </c>
+      <c r="L161" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" sqref="B2:B141">
+    <dataValidation type="list" sqref="B2:B160">
       <formula1>"应用运维组,基础设施组,网络安全组,架构组,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,基础设施组,,,,,,,,,,,,,,"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D2:D141">
+    <dataValidation type="list" sqref="D2:D160">
       <formula1>"进行中,未开始,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6762,68 +7469,58 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="51.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="10.8583333333333" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="7.925" customWidth="1"/>
-    <col min="5" max="5" width="4.64166666666667" customWidth="1"/>
-    <col min="6" max="6" width="11.3583333333333" customWidth="1"/>
-    <col min="7" max="8" width="16.7833333333333" customWidth="1"/>
-    <col min="9" max="9" width="18.6333333333333" customWidth="1"/>
-    <col min="10" max="10" width="11.3583333333333" customWidth="1"/>
-    <col min="11" max="11" width="9.56666666666667" customWidth="1"/>
-    <col min="12" max="12" width="11.3583333333333" customWidth="1"/>
-    <col min="13" max="13" width="7.925" customWidth="1"/>
-    <col min="14" max="14" width="4.64166666666667" customWidth="1"/>
+    <col min="1" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
+    <col min="5" max="14" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>26</v>
@@ -6831,16 +7528,16 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:10">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="E2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F2" s="2">
         <v>45821</v>
@@ -6852,22 +7549,22 @@
         <v>45835</v>
       </c>
       <c r="I2" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:10">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="2">
         <v>45821</v>
@@ -6879,19 +7576,22 @@
         <v>45838</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:10">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>45822</v>
@@ -6903,7 +7603,7 @@
         <v>45828</v>
       </c>
       <c r="I4" t="s">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c r="J4" s="2">
         <v>45831</v>
@@ -6911,13 +7611,13 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:12">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F5" s="2">
         <v>45825</v>
@@ -6933,21 +7633,21 @@
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:10">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="2">
         <v>45832</v>
@@ -6959,19 +7659,19 @@
         <v>45838</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:10">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6986,22 +7686,22 @@
         <v>45833</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:10">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F8" s="2">
         <v>45832</v>
@@ -7013,19 +7713,46 @@
         <v>45835</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J8" s="2"/>
+    </row>
+    <row r="9" ht="25.5" customHeight="1" spans="1:10">
+      <c r="A9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45834</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45838</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45838</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" sqref="B2:B7">
+    <dataValidation type="list" sqref="B2:B8">
       <formula1>"应用运维组,基础设施组,网络安全组,架构组,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D2:D7">
+    <dataValidation type="list" sqref="D2:D8">
       <formula1>"进行中,未开始,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="L2:L7">
+    <dataValidation type="list" sqref="L2:L8">
       <formula1>"延期完成,按时完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7040,26 +7767,26 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="4" width="4.64166666666667" customWidth="1"/>
+    <col min="1" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="3:3">
